--- a/Data/ACS_PUMS/deliverable_file/State_135_v2.xlsx
+++ b/Data/ACS_PUMS/deliverable_file/State_135_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26920"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hernang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C21D3A4-CDEC-4ED7-AACC-08EC16331B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{147E0B25-5B41-4170-9E78-B7C6D2CEC5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +503,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -850,7 +856,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -866,6 +872,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -8071,8 +8078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8206,12 +8213,12 @@
         <f>+N2*E2</f>
         <v>2138.5681511470984</v>
       </c>
-      <c r="G2" s="8">
-        <v>66.457116495431222</v>
+      <c r="G2" s="13">
+        <v>66.232601860000003</v>
       </c>
       <c r="H2" s="8">
         <f>+G2*F2</f>
-        <v>142123.07275420168</v>
+        <v>141642.93290540209</v>
       </c>
       <c r="I2">
         <v>94922</v>
@@ -8312,12 +8319,12 @@
         <f>+N3*E3</f>
         <v>65038.453952635493</v>
       </c>
-      <c r="G3" s="8">
-        <v>32.364739784074992</v>
+      <c r="G3" s="13">
+        <v>32.245413030000002</v>
       </c>
       <c r="H3" s="8">
         <f t="shared" ref="H3:H52" si="1">+G3*F3</f>
-        <v>2104952.6381355915</v>
+        <v>2097191.8105353676</v>
       </c>
       <c r="I3">
         <v>752434</v>
@@ -8418,12 +8425,12 @@
         <f>+N4*E4</f>
         <v>29948.262151436862</v>
       </c>
-      <c r="G4" s="8">
-        <v>33.552821120768932</v>
+      <c r="G4" s="13">
+        <v>33.217175150000003</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" si="1"/>
-        <v>1004848.6828450556</v>
+        <v>994796.66932239418</v>
       </c>
       <c r="I4">
         <v>505560</v>
@@ -8524,12 +8531,12 @@
         <f>+N5*E5</f>
         <v>64816.198175839963</v>
       </c>
-      <c r="G5" s="8">
-        <v>37.055343955639223</v>
+      <c r="G5" s="13">
+        <v>37.084611080000002</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="1"/>
-        <v>2401786.5173026253</v>
+        <v>2403683.5010352307</v>
       </c>
       <c r="I5">
         <v>999245</v>
@@ -8630,12 +8637,12 @@
         <f>+N6*E6</f>
         <v>206424.32101879307</v>
       </c>
-      <c r="G6" s="8">
-        <v>33.027834567416924</v>
+      <c r="G6" s="13">
+        <v>32.836504830000003</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="1"/>
-        <v>6817748.3253000621</v>
+        <v>6778253.2141630696</v>
       </c>
       <c r="I6">
         <v>5482710</v>
@@ -8736,12 +8743,12 @@
         <f>+N7*E7</f>
         <v>28969.432624276837</v>
       </c>
-      <c r="G7" s="8">
-        <v>33.270654764742062</v>
+      <c r="G7" s="13">
+        <v>32.800434559999999</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="1"/>
-        <v>963831.99157277029</v>
+        <v>950209.97903292137</v>
       </c>
       <c r="I7">
         <v>712665</v>
@@ -8842,12 +8849,12 @@
         <f>+N8*E8</f>
         <v>15187.016814037901</v>
       </c>
-      <c r="G8" s="8">
-        <v>33.115291883155678</v>
+      <c r="G8" s="13">
+        <v>32.811213889999998</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
-        <v>502922.49463125807</v>
+        <v>498304.4570364239</v>
       </c>
       <c r="I8">
         <v>515731</v>
@@ -8948,12 +8955,12 @@
         <f>+N9*E9</f>
         <v>5586.0534887423546</v>
       </c>
-      <c r="G9" s="8">
-        <v>37.358892852684498</v>
+      <c r="G9" s="13">
+        <v>36.423257239999998</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="1"/>
-        <v>208688.77375529005</v>
+        <v>203462.26317686221</v>
       </c>
       <c r="I9">
         <v>131637</v>
@@ -9051,12 +9058,12 @@
         <f>+N10*E10</f>
         <v>228534.2595022461</v>
       </c>
-      <c r="G10" s="8">
-        <v>33.32730013975371</v>
+      <c r="G10" s="13">
+        <v>33.136080849999999</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="1"/>
-        <v>7616429.8586477172</v>
+        <v>7572729.6998613076</v>
       </c>
       <c r="I10">
         <v>3090092</v>
@@ -9157,12 +9164,12 @@
         <f>+N11*E11</f>
         <v>100099.12080807718</v>
       </c>
-      <c r="G11" s="8">
-        <v>33.27985319705536</v>
+      <c r="G11" s="13">
+        <v>33.016021690000002</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
-        <v>3331284.0456471178</v>
+        <v>3304874.7437494067</v>
       </c>
       <c r="I11">
         <v>1407824</v>
@@ -9263,12 +9270,12 @@
         <f>+N12*E12</f>
         <v>4041.4003970496606</v>
       </c>
-      <c r="G12" s="8">
-        <v>32.020702849015663</v>
+      <c r="G12" s="13">
+        <v>31.859949690000001</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>129408.4812078211</v>
+        <v>128758.81332714821</v>
       </c>
       <c r="I12">
         <v>189627</v>
@@ -9369,12 +9376,12 @@
         <f>+N13*E13</f>
         <v>16510.253803616979</v>
       </c>
-      <c r="G13" s="8">
-        <v>34.583186307792246</v>
+      <c r="G13" s="13">
+        <v>34.035919739999997</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="1"/>
-        <v>570977.18327942153</v>
+        <v>561941.67334693717</v>
       </c>
       <c r="I13">
         <v>420220</v>
@@ -9475,12 +9482,12 @@
         <f>+N14*E14</f>
         <v>7528.5340082748244</v>
       </c>
-      <c r="G14" s="8">
-        <v>35.401005108951651</v>
+      <c r="G14" s="13">
+        <v>34.731982799999997</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="1"/>
-        <v>266517.67088985333</v>
+        <v>261480.91368461624</v>
       </c>
       <c r="I14">
         <v>238203</v>
@@ -9581,12 +9588,12 @@
         <f>+N15*E15</f>
         <v>77360.057551087317</v>
       </c>
-      <c r="G15" s="8">
-        <v>34.513045892322481</v>
+      <c r="G15" s="13">
+        <v>33.968861510000004</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>2669931.2164933849</v>
+        <v>2627833.0813585152</v>
       </c>
       <c r="I15">
         <v>1740186</v>
@@ -9687,12 +9694,12 @@
         <f>+N16*E16</f>
         <v>60997.749452756958</v>
       </c>
-      <c r="G16" s="8">
-        <v>33.056022648902626</v>
+      <c r="G16" s="13">
+        <v>32.701699660000003</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>2016342.9874424217</v>
+        <v>1994730.0825399875</v>
       </c>
       <c r="I16">
         <v>918666</v>
@@ -9793,12 +9800,12 @@
         <f>+N17*E17</f>
         <v>24119.94774894221</v>
       </c>
-      <c r="G17" s="8">
-        <v>31.634288256525583</v>
+      <c r="G17" s="13">
+        <v>31.419998240000002</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>763017.37982237316</v>
+        <v>757848.71582065627</v>
       </c>
       <c r="I17">
         <v>355446</v>
@@ -9899,12 +9906,12 @@
         <f>+N18*E18</f>
         <v>51564.409061724975</v>
       </c>
-      <c r="G18" s="8">
-        <v>32.429403238195825</v>
+      <c r="G18" s="13">
+        <v>32.125411460000002</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>1672203.014201958</v>
+        <v>1656527.8577996674</v>
       </c>
       <c r="I18">
         <v>763378</v>
@@ -10005,12 +10012,12 @@
         <f>+N19*E19</f>
         <v>51675.638018993472</v>
       </c>
-      <c r="G19" s="8">
-        <v>34.131445729613461</v>
+      <c r="G19" s="13">
+        <v>34.008281179999997</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="1"/>
-        <v>1763764.2345884256</v>
+        <v>1757399.6279058279</v>
       </c>
       <c r="I19">
         <v>846811</v>
@@ -10111,12 +10118,12 @@
         <f>+N20*E20</f>
         <v>25840.349686951336</v>
       </c>
-      <c r="G20" s="8">
-        <v>34.175776857840418</v>
+      <c r="G20" s="13">
+        <v>33.705891639999997</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="1"/>
-        <v>883114.02482981537</v>
+        <v>870972.02648808958</v>
       </c>
       <c r="I20">
         <v>1028008</v>
@@ -10217,12 +10224,12 @@
         <f>+N21*E21</f>
         <v>22497.526595403389</v>
       </c>
-      <c r="G21" s="8">
-        <v>35.151507726942143</v>
+      <c r="G21" s="13">
+        <v>34.495308659999999</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="1"/>
-        <v>790821.97995540861</v>
+        <v>776059.12399499887</v>
       </c>
       <c r="I21">
         <v>777692</v>
@@ -10323,12 +10330,12 @@
         <f>+N22*E22</f>
         <v>15128.307374706219</v>
       </c>
-      <c r="G22" s="8">
-        <v>31.38385185457831</v>
+      <c r="G22" s="13">
+        <v>31.143031879999999</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>474784.55745830451</v>
+        <v>471141.35886091489</v>
       </c>
       <c r="I22">
         <v>195666</v>
@@ -10429,12 +10436,12 @@
         <f>+N23*E23</f>
         <v>98747.897742572706</v>
       </c>
-      <c r="G23" s="8">
-        <v>34.508203478031682</v>
+      <c r="G23" s="13">
+        <v>34.127417870000002</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>3407612.5483285645</v>
+        <v>3370010.7700448087</v>
       </c>
       <c r="I23">
         <v>1493430</v>
@@ -10535,12 +10542,12 @@
         <f>+N24*E24</f>
         <v>29510.337059843365</v>
       </c>
-      <c r="G24" s="8">
-        <v>33.239950301896677</v>
+      <c r="G24" s="13">
+        <v>32.999180930000001</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
-        <v>980922.13726141315</v>
+        <v>973816.95194305549</v>
       </c>
       <c r="I24">
         <v>694440</v>
@@ -10641,12 +10648,12 @@
         <f>+N25*E25</f>
         <v>66007.696731498159</v>
       </c>
-      <c r="G25" s="8">
-        <v>32.391224354527402</v>
+      <c r="G25" s="13">
+        <v>32.087810779999998</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>2138070.113955562</v>
+        <v>2118042.4827439371</v>
       </c>
       <c r="I25">
         <v>779215</v>
@@ -10747,12 +10754,12 @@
         <f>+N26*E26</f>
         <v>33549.306136922452</v>
       </c>
-      <c r="G26" s="8">
-        <v>34.271545176930694</v>
+      <c r="G26" s="13">
+        <v>33.903143319999998</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="1"/>
-        <v>1149786.560926216</v>
+        <v>1137426.9342466374</v>
       </c>
       <c r="I26">
         <v>489501</v>
@@ -10853,12 +10860,12 @@
         <f>+N27*E27</f>
         <v>8523.5953099872004</v>
       </c>
-      <c r="G27" s="8">
-        <v>33.648526124447805</v>
+      <c r="G27" s="13">
+        <v>33.274259790000002</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="1"/>
-        <v>286806.41946232511</v>
+        <v>283616.32468933973</v>
       </c>
       <c r="I27">
         <v>151001</v>
@@ -10959,12 +10966,12 @@
         <f>+N28*E28</f>
         <v>130207.91490289941</v>
       </c>
-      <c r="G28" s="8">
-        <v>31.754005458516833</v>
+      <c r="G28" s="13">
+        <v>31.567388480000002</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="1"/>
-        <v>4134622.8405687632</v>
+        <v>4110323.8329106076</v>
       </c>
       <c r="I28">
         <v>1473834</v>
@@ -11065,12 +11072,12 @@
         <f>+N29*E29</f>
         <v>4134.0492149758456</v>
       </c>
-      <c r="G29" s="8">
-        <v>34.893594484375022</v>
+      <c r="G29" s="13">
+        <v>34.490254780000001</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="1"/>
-        <v>144251.83688581607</v>
+        <v>142584.41069757592</v>
       </c>
       <c r="I29">
         <v>78107</v>
@@ -11171,12 +11178,12 @@
         <f>+N30*E30</f>
         <v>16418.840813541494</v>
       </c>
-      <c r="G30" s="8">
-        <v>30.751567988850223</v>
+      <c r="G30" s="13">
+        <v>30.684206410000002</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="1"/>
-        <v>504905.09957573016</v>
+        <v>503799.10053563956</v>
       </c>
       <c r="I30">
         <v>227231</v>
@@ -11277,12 +11284,12 @@
         <f>+N31*E31</f>
         <v>5392.6223557479898</v>
       </c>
-      <c r="G31" s="8">
-        <v>32.127242691501721</v>
+      <c r="G31" s="13">
+        <v>31.75315651</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="1"/>
-        <v>173250.0871667334</v>
+        <v>171232.78166139082</v>
       </c>
       <c r="I31">
         <v>143603</v>
@@ -11383,12 +11390,12 @@
         <f>+N32*E32</f>
         <v>33555.529119696126</v>
       </c>
-      <c r="G32" s="8">
-        <v>35.254422998676731</v>
+      <c r="G32" s="13">
+        <v>34.815277600000002</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="1"/>
-        <v>1182980.817530182</v>
+        <v>1168245.0613171044</v>
       </c>
       <c r="I32">
         <v>1114667</v>
@@ -11489,12 +11496,12 @@
         <f>+N33*E33</f>
         <v>17775.943382146765</v>
       </c>
-      <c r="G33" s="8">
-        <v>39.859784209386504</v>
+      <c r="G33" s="13">
+        <v>39.697631569999999</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="1"/>
-        <v>708545.26733064209</v>
+        <v>705662.85119364201</v>
       </c>
       <c r="I33">
         <v>395439</v>
@@ -11595,12 +11602,12 @@
         <f>+N34*E34</f>
         <v>34108.284407589272</v>
       </c>
-      <c r="G34" s="8">
-        <v>33.693107600649505</v>
+      <c r="G34" s="13">
+        <v>33.554117259999998</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="1"/>
-        <v>1149214.0966184612</v>
+        <v>1144473.3745496799</v>
       </c>
       <c r="I34">
         <v>451547</v>
@@ -11701,12 +11708,12 @@
         <f>+N35*E35</f>
         <v>127812.88213124362</v>
       </c>
-      <c r="G35" s="8">
-        <v>33.30091123309959</v>
+      <c r="G35" s="13">
+        <v>33.144548370000003</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="1"/>
-        <v>4256285.4422991648</v>
+        <v>4236300.2541081132</v>
       </c>
       <c r="I35">
         <v>3146424</v>
@@ -11807,12 +11814,12 @@
         <f>+N36*E36</f>
         <v>155425.85920384413</v>
       </c>
-      <c r="G36" s="8">
-        <v>31.917905120841112</v>
+      <c r="G36" s="13">
+        <v>31.677992769999999</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="1"/>
-        <v>4960867.8273935067</v>
+        <v>4923579.2441304121</v>
       </c>
       <c r="I36">
         <v>1699027</v>
@@ -11913,12 +11920,12 @@
         <f>+N37*E37</f>
         <v>51710.371854843157</v>
       </c>
-      <c r="G37" s="8">
-        <v>55.517678973390275</v>
+      <c r="G37" s="13">
+        <v>55.285361620000003</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="1"/>
-        <v>2870839.8242318183</v>
+        <v>2858826.6074996744</v>
       </c>
       <c r="I37">
         <v>601493</v>
@@ -12019,12 +12026,12 @@
         <f>+N38*E38</f>
         <v>19692.015383521029</v>
       </c>
-      <c r="G38" s="8">
-        <v>32.529667189373967</v>
+      <c r="G38" s="13">
+        <v>32.176131329999997</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="1"/>
-        <v>640574.70671397145</v>
+        <v>633612.87313255295</v>
       </c>
       <c r="I38">
         <v>667826</v>
@@ -12125,12 +12132,12 @@
         <f>+N39*E39</f>
         <v>94066.431406329764</v>
       </c>
-      <c r="G39" s="8">
-        <v>34.207414367642919</v>
+      <c r="G39" s="13">
+        <v>33.763203109999999</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="1"/>
-        <v>3217769.3972017821</v>
+        <v>3175984.0294047948</v>
       </c>
       <c r="I39">
         <v>1815135</v>
@@ -12231,12 +12238,12 @@
         <f>+N40*E40</f>
         <v>6381.0831083818757</v>
       </c>
-      <c r="G40" s="8">
-        <v>33.266426422291921</v>
+      <c r="G40" s="13">
+        <v>32.904151599999999</v>
       </c>
       <c r="H40" s="8">
         <f t="shared" si="1"/>
-        <v>212275.8317195155</v>
+        <v>209964.12597039648</v>
       </c>
       <c r="I40">
         <v>172984</v>
@@ -12337,12 +12344,12 @@
         <f>+N41*E41</f>
         <v>61450.446561195859</v>
       </c>
-      <c r="G41" s="8">
-        <v>32.11385416034863</v>
+      <c r="G41" s="13">
+        <v>32.022368110000002</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="1"/>
-        <v>1973410.6789545408</v>
+        <v>1967788.8203064976</v>
       </c>
       <c r="I41">
         <v>741372</v>
@@ -12443,12 +12450,12 @@
         <f>+N42*E42</f>
         <v>4679.2268100665387</v>
       </c>
-      <c r="G42" s="8">
-        <v>41.963047290347461</v>
+      <c r="G42" s="13">
+        <v>41.817585610000002</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="1"/>
-        <v>196354.61591308386</v>
+        <v>195673.9677185647</v>
       </c>
       <c r="I42">
         <v>94134</v>
@@ -12549,12 +12556,12 @@
         <f>+N43*E43</f>
         <v>68455.686105360975</v>
       </c>
-      <c r="G43" s="8">
-        <v>32.376960115254001</v>
+      <c r="G43" s="13">
+        <v>32.068839650000001</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="1"/>
-        <v>2216387.0186956199</v>
+        <v>2195294.4208435542</v>
       </c>
       <c r="I43">
         <v>992706</v>
@@ -12655,12 +12662,12 @@
         <f>+N44*E44</f>
         <v>248646.36484606189</v>
       </c>
-      <c r="G44" s="8">
-        <v>32.557011483321922</v>
+      <c r="G44" s="13">
+        <v>32.347458199999998</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="1"/>
-        <v>8095182.5555794891</v>
+        <v>8043077.8934399355</v>
       </c>
       <c r="I44">
         <v>3794030</v>
@@ -12761,12 +12768,12 @@
         <f>+N45*E45</f>
         <v>13058.797193662216</v>
       </c>
-      <c r="G45" s="8">
-        <v>35.806145111927925</v>
+      <c r="G45" s="13">
+        <v>35.304178210000003</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="1"/>
-        <v>467585.18730350648</v>
+        <v>461030.10333329882</v>
       </c>
       <c r="I45">
         <v>283317</v>
@@ -12867,12 +12874,12 @@
         <f>+N46*E46</f>
         <v>57936.594473324927</v>
       </c>
-      <c r="G46" s="8">
-        <v>34.285654888906045</v>
+      <c r="G46" s="13">
+        <v>33.832989359999999</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="1"/>
-        <v>1986394.0835509198</v>
+        <v>1960168.1843706369</v>
       </c>
       <c r="I46">
         <v>973923</v>
@@ -12973,12 +12980,12 @@
         <f>+N47*E47</f>
         <v>2358.469520415611</v>
       </c>
-      <c r="G47" s="8">
-        <v>32.188004013532122</v>
+      <c r="G47" s="13">
+        <v>31.791231509999999</v>
       </c>
       <c r="H47" s="8">
         <f t="shared" si="1"/>
-        <v>75914.426388930864</v>
+        <v>74978.650532811356</v>
       </c>
       <c r="I47">
         <v>103893</v>
@@ -13079,12 +13086,12 @@
         <f>+N48*E48</f>
         <v>30681.647141115645</v>
       </c>
-      <c r="G48" s="8">
-        <v>33.510763636797982</v>
+      <c r="G48" s="13">
+        <v>33.083643129999999</v>
       </c>
       <c r="H48" s="8">
         <f t="shared" si="1"/>
-        <v>1028165.425333565</v>
+        <v>1015060.6646572547</v>
       </c>
       <c r="I48">
         <v>1021695</v>
@@ -13185,12 +13192,12 @@
         <f>+N49*E49</f>
         <v>58060.735436057883</v>
       </c>
-      <c r="G49" s="8">
-        <v>32.291244051581153</v>
+      <c r="G49" s="13">
+        <v>32.005304860000003</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="1"/>
-        <v>1874853.3777800312</v>
+        <v>1858251.5380268376</v>
       </c>
       <c r="I49">
         <v>756664</v>
@@ -13291,12 +13298,12 @@
         <f>+N50*E50</f>
         <v>13958.455346442362</v>
       </c>
-      <c r="G50" s="8">
-        <v>34.670667751991523</v>
+      <c r="G50" s="13">
+        <v>34.131410379999998</v>
       </c>
       <c r="H50" s="8">
         <f t="shared" si="1"/>
-        <v>483948.96764751291</v>
+        <v>476421.76770032931</v>
       </c>
       <c r="I50">
         <v>315166</v>
@@ -13397,12 +13404,12 @@
         <f>+N51*E51</f>
         <v>4059.9972111600864</v>
       </c>
-      <c r="G51" s="8">
-        <v>31.621211970939509</v>
+      <c r="G51" s="13">
+        <v>31.479686439999998</v>
       </c>
       <c r="H51" s="8">
         <f t="shared" si="1"/>
-        <v>128382.03241551634</v>
+        <v>127807.43915459399</v>
       </c>
       <c r="I51">
         <v>66791</v>
@@ -13503,12 +13510,12 @@
         <f>+N52*E52</f>
         <v>59003.553432638328</v>
       </c>
-      <c r="G52" s="8">
-        <v>32.665586972785725</v>
+      <c r="G52" s="13">
+        <v>32.688627820000001</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="1"/>
-        <v>1927385.706357257</v>
+        <v>1928745.1982169978</v>
       </c>
       <c r="I52">
         <v>843365</v>
@@ -13591,12 +13598,10 @@
         <f>SUM(F2:F52)</f>
         <v>2659376.4947298267</v>
       </c>
-      <c r="G53" s="9">
-        <v>33.693477941219619</v>
-      </c>
+      <c r="G53" s="9"/>
       <c r="H53" s="11">
         <f>SUM(H2:H52)</f>
-        <v>89669044.06185101</v>
+        <v>88981643.205026418</v>
       </c>
       <c r="L53" s="3">
         <f>SUM(L2:L52)</f>
@@ -13636,7 +13641,7 @@
       <c r="A58">
         <v>3</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -13656,9 +13661,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B56" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B58" r:id="rId2" xr:uid="{95131D21-0C33-45D7-905C-476BCEB96CF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -13744,6 +13750,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051ECE92E5E5FC8429A54C4E0067B4A6F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9847290575c7bc5d5edcc6ba3366ed2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fa1d493-2533-4267-bd8d-f20e718e3e9a" xmlns:ns3="154dde8e-0302-4204-8831-7b6b0b57b4c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9985a43a59dcb72196bd4a058d8673f9" ns2:_="" ns3:_="">
     <xsd:import namespace="1fa1d493-2533-4267-bd8d-f20e718e3e9a"/>
@@ -13986,23 +14001,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE3FF542-81E0-4B2D-B676-B86C6E06E124}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2073904-950E-4CD3-A96A-D0900CD86CC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F8B9A57-A6AA-4D23-935B-A90E1FFF35BB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F8B9A57-A6AA-4D23-935B-A90E1FFF35BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2073904-950E-4CD3-A96A-D0900CD86CC0}"/>
 </file>
--- a/Data/ACS_PUMS/deliverable_file/State_135_v2.xlsx
+++ b/Data/ACS_PUMS/deliverable_file/State_135_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hernang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelchavez/Desktop/ACP-Eligibility/Data/ACS_PUMS/deliverable_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{147E0B25-5B41-4170-9E78-B7C6D2CEC5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C691ED-7242-3844-9B89-3D331772E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="percentage_eligible_povpip_135_" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,7 @@
     <t>Party</t>
   </si>
   <si>
-    <t>ACP Participation July 23 (2)</t>
-  </si>
-  <si>
     <t>Weighed diff</t>
-  </si>
-  <si>
-    <t>Avg claim $ Jan-Jul 2023 (3)</t>
   </si>
   <si>
     <t>Saving in $</t>
@@ -341,6 +335,12 @@
   <si>
     <t>Estimated drop in HHs</t>
   </si>
+  <si>
+    <t>Avg claim $ Jan-Sep 2023 (3)</t>
+  </si>
+  <si>
+    <t>ACP Participation Sep 23 (2)</t>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +355,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +509,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -872,7 +873,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1829,157 +1830,157 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.18151147098515519</c:v>
+                  <c:v>0.197649572649572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40805113278688165</c:v>
+                  <c:v>0.42026184935217598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.31460902335739205</c:v>
+                  <c:v>0.32714497829387101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36969592224545533</c:v>
+                  <c:v>0.395275539602645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38875075993098429</c:v>
+                  <c:v>0.42750142008984798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25822450572951267</c:v>
+                  <c:v>0.27083040351481202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28708373781285612</c:v>
+                  <c:v>0.29994794524402402</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29238699234453569</c:v>
+                  <c:v>0.30768465324859601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38355872268455238</c:v>
+                  <c:v>0.41698540227970299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38856695097677185</c:v>
+                  <c:v>0.395790889467316</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23226439063503795</c:v>
+                  <c:v>0.25347901481449198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21367794535334592</c:v>
+                  <c:v>0.22661094661770001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15385392287975036</c:v>
+                  <c:v>0.163692466287752</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.29696075157995333</c:v>
+                  <c:v>0.31331309366958998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33797511886500975</c:v>
+                  <c:v>0.35325971254046301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2563878964767019</c:v>
+                  <c:v>0.27075649245198202</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46713239173551641</c:v>
+                  <c:v>0.48587546050816899</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.50904435816375382</c:v>
+                  <c:v>0.53536863905450205</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.29063163935791225</c:v>
+                  <c:v>0.30350186539937002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28296995906425243</c:v>
+                  <c:v>0.29927309591610701</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.37373224078426392</c:v>
+                  <c:v>0.39315674691397201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.41776655233752324</c:v>
+                  <c:v>0.45385278422199998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27209501604192821</c:v>
+                  <c:v>0.28654396086167999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.35418504940036039</c:v>
+                  <c:v>0.37575446881666902</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.38471768977607307</c:v>
+                  <c:v>0.387259712921315</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.26792805802619057</c:v>
+                  <c:v>0.28061855218965698</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.46559862582699313</c:v>
+                  <c:v>0.49083342885706199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.13254830917874397</c:v>
+                  <c:v>0.14415898111550199</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.30317676367422802</c:v>
+                  <c:v>0.31767992124724997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20620305734735353</c:v>
+                  <c:v>0.210173485317074</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.21821895766206756</c:v>
+                  <c:v>0.226280848004276</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.37991714681114719</c:v>
+                  <c:v>0.384374123755167</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.42751854312488119</c:v>
+                  <c:v>0.45668691149927798</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.42345282068429313</c:v>
+                  <c:v>0.45300164517804398</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.50808206155414593</c:v>
+                  <c:v>0.54349270350046397</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.4167939246926512</c:v>
+                  <c:v>0.449122057445283</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25488972369521246</c:v>
+                  <c:v>0.27744157362334099</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.31294452952186491</c:v>
+                  <c:v>0.33372327151040698</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.37410348293263035</c:v>
+                  <c:v>0.40697533690098397</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.41158764215374216</c:v>
+                  <c:v>0.44147290868814898</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.17141280716779761</c:v>
+                  <c:v>0.18172310428881999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.32874719594183882</c:v>
+                  <c:v>0.345189343663036</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.33495033912592631</c:v>
+                  <c:v>0.3591437026273</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.16740330727184669</c:v>
+                  <c:v>0.18258077907700801</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.34339512007281381</c:v>
+                  <c:v>0.37162535881817499</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1877463397879009</c:v>
+                  <c:v>0.20693830234854599</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.26063683668696075</c:v>
+                  <c:v>0.27906650178644599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.42885648658313613</c:v>
+                  <c:v>0.460510577333756</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.30814727684317988</c:v>
+                  <c:v>0.32419048781570398</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.22768041785330229</c:v>
+                  <c:v>0.244437091570849</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.65034172222864561</c:v>
+                  <c:v>0.68068241672126495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5674,157 +5675,157 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>2138.5681511470984</c:v>
+                  <c:v>2328.7072649572574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65038.453952635493</c:v>
+                  <c:v>66984.695644544627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29948.262151436862</c:v>
+                  <c:v>31141.584773750168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64816.198175839963</c:v>
+                  <c:v>69300.893429754535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206424.32101879307</c:v>
+                  <c:v>227000.68905918873</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28969.432624276837</c:v>
+                  <c:v>30383.650479116215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15187.016814037901</c:v>
+                  <c:v>15867.546251354115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5586.0534887423546</c:v>
+                  <c:v>5878.3153003144271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>228534.2595022461</c:v>
+                  <c:v>248450.74429870633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100099.12080807718</c:v>
+                  <c:v>101960.08682656474</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4041.4003970496606</c:v>
+                  <c:v>4410.5348577721606</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16510.253803616979</c:v>
+                  <c:v>17509.548012309828</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7528.5340082748244</c:v>
+                  <c:v>8009.9634528585684</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>77360.057551087317</c:v>
+                  <c:v>81619.940779490207</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60997.749452756958</c:v>
+                  <c:v>63756.312919302763</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24119.94774894221</c:v>
+                  <c:v>25471.687783912661</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51564.409061724975</c:v>
+                  <c:v>53633.362708194232</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51675.638018993472</c:v>
+                  <c:v>54347.947393617775</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25840.349686951336</c:v>
+                  <c:v>26984.654354523387</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22497.526595403389</c:v>
+                  <c:v>23793.707490810088</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15128.307374706219</c:v>
+                  <c:v>15914.591958330673</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98747.897742572706</c:v>
+                  <c:v>107277.63645933836</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29510.337059843365</c:v>
+                  <c:v>31077.411819214365</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66007.696731498159</c:v>
+                  <c:v>70027.481581018525</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33549.306136922452</c:v>
+                  <c:v>33770.983265303272</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8523.5953099872004</c:v>
+                  <c:v>8927.3180008095569</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>130207.91490289941</c:v>
+                  <c:v>137265.00421387938</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4134.0492149758456</c:v>
+                  <c:v>4496.1744620113914</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16418.840813541494</c:v>
+                  <c:v>17204.27381506607</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5392.6223557479898</c:v>
+                  <c:v>5496.4569880121189</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>33555.529119696126</c:v>
+                  <c:v>34795.205997617522</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17775.943382146765</c:v>
+                  <c:v>17984.480876380509</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34108.284407589272</c:v>
+                  <c:v>36435.395173235396</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>127812.88213124362</c:v>
+                  <c:v>136731.75157231491</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>155425.85920384413</c:v>
+                  <c:v>166258.22244971644</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51710.371854843157</c:v>
+                  <c:v>55721.226301063929</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19692.015383521029</c:v>
+                  <c:v>21434.303653418454</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>94066.431406329764</c:v>
+                  <c:v>100312.20956695569</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6381.0831083818757</c:v>
+                  <c:v>6941.7783215200834</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>61450.446561195859</c:v>
+                  <c:v>65912.346740049325</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4679.2268100665387</c:v>
+                  <c:v>4960.6773008762084</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>68455.686105360975</c:v>
+                  <c:v>71879.467409641307</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>248646.36484606189</c:v>
+                  <c:v>266606.01792094461</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13058.797193662216</c:v>
+                  <c:v>14242.761414239241</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>57936.594473324927</c:v>
+                  <c:v>62699.51566372603</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2358.469520415611</c:v>
+                  <c:v>2599.5589541024347</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30681.647141115645</c:v>
+                  <c:v>32851.150457296848</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>58060.735436057883</c:v>
+                  <c:v>62346.224512330555</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13958.455346442362</c:v>
+                  <c:v>14685.180717075758</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4059.9972111600864</c:v>
+                  <c:v>4358.8022168913794</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>59003.553432638328</c:v>
+                  <c:v>61756.273621870205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8078,21 +8079,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8106,119 +8107,119 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="5">
-        <v>0.18151147098515519</v>
+        <v>0.197649572649572</v>
       </c>
       <c r="F2" s="1">
-        <f>+N2*E2</f>
-        <v>2138.5681511470984</v>
+        <f t="shared" ref="F2:F33" si="0">+N2*E2</f>
+        <v>2328.7072649572574</v>
       </c>
       <c r="G2" s="13">
-        <v>66.232601860000003</v>
+        <v>66.944909269999997</v>
       </c>
       <c r="H2" s="8">
         <f>+G2*F2</f>
-        <v>141642.93290540209</v>
+        <v>155895.09656895345</v>
       </c>
       <c r="I2">
         <v>94922</v>
@@ -8237,11 +8238,11 @@
         <v>0.39</v>
       </c>
       <c r="N2" s="1">
-        <f>+L2-I2</f>
+        <f t="shared" ref="N2:N33" si="1">+L2-I2</f>
         <v>11782</v>
       </c>
       <c r="O2" s="7">
-        <f t="shared" ref="O2:O33" si="0">+N2/L2</f>
+        <f t="shared" ref="O2:O33" si="2">+N2/L2</f>
         <v>0.11041760383865647</v>
       </c>
       <c r="P2">
@@ -8299,32 +8300,32 @@
         <v>-21.27</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5">
-        <v>0.40805113278688165</v>
+        <v>0.42026184935217598</v>
       </c>
       <c r="F3" s="1">
-        <f>+N3*E3</f>
-        <v>65038.453952635493</v>
+        <f t="shared" si="0"/>
+        <v>66984.695644544627</v>
       </c>
       <c r="G3" s="13">
-        <v>32.245413030000002</v>
+        <v>32.312692630000001</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H52" si="1">+G3*F3</f>
-        <v>2097191.8105353676</v>
+        <f t="shared" ref="H3:H52" si="3">+G3*F3</f>
+        <v>2164455.8812762704</v>
       </c>
       <c r="I3">
         <v>752434</v>
@@ -8333,7 +8334,7 @@
         <v>1215105</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K52" si="2">+I3/(I3+J3)</f>
+        <f t="shared" ref="K3:K52" si="4">+I3/(I3+J3)</f>
         <v>0.38242393162219401</v>
       </c>
       <c r="L3">
@@ -8343,11 +8344,11 @@
         <v>0.46</v>
       </c>
       <c r="N3" s="1">
-        <f>+L3-I3</f>
+        <f t="shared" si="1"/>
         <v>159388</v>
       </c>
       <c r="O3" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.174801660850473</v>
       </c>
       <c r="P3">
@@ -8405,32 +8406,32 @@
         <v>-11.35</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5">
-        <v>0.31460902335739205</v>
+        <v>0.32714497829387101</v>
       </c>
       <c r="F4" s="1">
-        <f>+N4*E4</f>
-        <v>29948.262151436862</v>
+        <f t="shared" si="0"/>
+        <v>31141.584773750168</v>
       </c>
       <c r="G4" s="13">
-        <v>33.217175150000003</v>
+        <v>33.286209599999999</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" si="1"/>
-        <v>994796.66932239418</v>
+        <f t="shared" si="3"/>
+        <v>1036585.3180552167</v>
       </c>
       <c r="I4">
         <v>505560</v>
@@ -8439,7 +8440,7 @@
         <v>678011</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.42714801224430138</v>
       </c>
       <c r="L4">
@@ -8449,11 +8450,11 @@
         <v>0.51</v>
       </c>
       <c r="N4" s="1">
-        <f>+L4-I4</f>
+        <f t="shared" si="1"/>
         <v>95192</v>
       </c>
       <c r="O4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1584547367299651</v>
       </c>
       <c r="P4">
@@ -8511,32 +8512,32 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5">
-        <v>0.36969592224545533</v>
+        <v>0.395275539602645</v>
       </c>
       <c r="F5" s="1">
-        <f>+N5*E5</f>
-        <v>64816.198175839963</v>
+        <f t="shared" si="0"/>
+        <v>69300.893429754535</v>
       </c>
       <c r="G5" s="13">
-        <v>37.084611080000002</v>
+        <v>36.729913259999996</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="1"/>
-        <v>2403683.5010352307</v>
+        <f t="shared" si="3"/>
+        <v>2545415.8045153879</v>
       </c>
       <c r="I5">
         <v>999245</v>
@@ -8545,7 +8546,7 @@
         <v>1818452</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35463181456345377</v>
       </c>
       <c r="L5">
@@ -8555,11 +8556,11 @@
         <v>0.42</v>
       </c>
       <c r="N5" s="1">
-        <f>+L5-I5</f>
+        <f t="shared" si="1"/>
         <v>175323</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1492659428828301</v>
       </c>
       <c r="P5">
@@ -8617,32 +8618,32 @@
         <v>-20.74</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5">
-        <v>0.38875075993098429</v>
+        <v>0.42750142008984798</v>
       </c>
       <c r="F6" s="1">
-        <f>+N6*E6</f>
-        <v>206424.32101879307</v>
+        <f t="shared" si="0"/>
+        <v>227000.68905918873</v>
       </c>
       <c r="G6" s="13">
-        <v>32.836504830000003</v>
+        <v>33.00164891</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="1"/>
-        <v>6778253.2141630696</v>
+        <f t="shared" si="3"/>
+        <v>7491397.0426594252</v>
       </c>
       <c r="I6">
         <v>5482710</v>
@@ -8651,7 +8652,7 @@
         <v>7946315</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40827312481732664</v>
       </c>
       <c r="L6">
@@ -8661,11 +8662,11 @@
         <v>0.45</v>
       </c>
       <c r="N6" s="1">
-        <f>+L6-I6</f>
+        <f t="shared" si="1"/>
         <v>530994</v>
       </c>
       <c r="O6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.8297328900790589E-2</v>
       </c>
       <c r="P6">
@@ -8723,32 +8724,32 @@
         <v>-13.87</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5">
-        <v>0.25822450572951267</v>
+        <v>0.27083040351481202</v>
       </c>
       <c r="F7" s="1">
-        <f>+N7*E7</f>
-        <v>28969.432624276837</v>
+        <f t="shared" si="0"/>
+        <v>30383.650479116215</v>
       </c>
       <c r="G7" s="13">
-        <v>32.800434559999999</v>
+        <v>33.382553080000001</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="1"/>
-        <v>950209.97903292137</v>
+        <f t="shared" si="3"/>
+        <v>1014283.8248832645</v>
       </c>
       <c r="I7">
         <v>712665</v>
@@ -8757,7 +8758,7 @@
         <v>1600366</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.30810871103759524</v>
       </c>
       <c r="L7">
@@ -8767,11 +8768,11 @@
         <v>0.36</v>
       </c>
       <c r="N7" s="1">
-        <f>+L7-I7</f>
+        <f t="shared" si="1"/>
         <v>112187</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13600864155024173</v>
       </c>
       <c r="P7">
@@ -8829,32 +8830,32 @@
         <v>-14.31</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5">
-        <v>0.28708373781285612</v>
+        <v>0.29994794524402402</v>
       </c>
       <c r="F8" s="1">
-        <f>+N8*E8</f>
-        <v>15187.016814037901</v>
+        <f t="shared" si="0"/>
+        <v>15867.546251354115</v>
       </c>
       <c r="G8" s="13">
-        <v>32.811213889999998</v>
+        <v>33.124412139999997</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="1"/>
-        <v>498304.4570364239</v>
+        <f t="shared" si="3"/>
+        <v>525603.14168036566</v>
       </c>
       <c r="I8">
         <v>515731</v>
@@ -8863,7 +8864,7 @@
         <v>912587</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36107575483890841</v>
       </c>
       <c r="L8">
@@ -8873,11 +8874,11 @@
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <f>+L8-I8</f>
+        <f t="shared" si="1"/>
         <v>52901</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.30320488470575E-2</v>
       </c>
       <c r="P8">
@@ -8935,32 +8936,32 @@
         <v>-14.04</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5">
-        <v>0.29238699234453569</v>
+        <v>0.30768465324859601</v>
       </c>
       <c r="F9" s="1">
-        <f>+N9*E9</f>
-        <v>5586.0534887423546</v>
+        <f t="shared" si="0"/>
+        <v>5878.3153003144271</v>
       </c>
       <c r="G9" s="13">
-        <v>36.423257239999998</v>
+        <v>36.833713109999998</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
-        <v>203462.26317686221</v>
+        <f t="shared" si="3"/>
+        <v>216520.17934190508</v>
       </c>
       <c r="I9">
         <v>131637</v>
@@ -8969,7 +8970,7 @@
         <v>264030</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33269643412263344</v>
       </c>
       <c r="L9">
@@ -8979,11 +8980,11 @@
         <v>0.38</v>
       </c>
       <c r="N9" s="1">
-        <f>+L9-I9</f>
+        <f t="shared" si="1"/>
         <v>19105</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12673972748139203</v>
       </c>
       <c r="P9">
@@ -9038,32 +9039,32 @@
         <v>-13.11</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="5">
-        <v>0.38355872268455238</v>
+        <v>0.41698540227970299</v>
       </c>
       <c r="F10" s="1">
-        <f>+N10*E10</f>
-        <v>228534.2595022461</v>
+        <f t="shared" si="0"/>
+        <v>248450.74429870633</v>
       </c>
       <c r="G10" s="13">
-        <v>33.136080849999999</v>
+        <v>33.259198130000001</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
-        <v>7572729.6998613076</v>
+        <f t="shared" si="3"/>
+        <v>8263272.5301766424</v>
       </c>
       <c r="I10">
         <v>3090092</v>
@@ -9072,7 +9073,7 @@
         <v>5475244</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36076716663537778</v>
       </c>
       <c r="L10">
@@ -9082,11 +9083,11 @@
         <v>0.43</v>
       </c>
       <c r="N10" s="1">
-        <f>+L10-I10</f>
+        <f t="shared" si="1"/>
         <v>595826</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16164928248539442</v>
       </c>
       <c r="P10">
@@ -9144,32 +9145,32 @@
         <v>-10.85</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5">
-        <v>0.38856695097677185</v>
+        <v>0.395790889467316</v>
       </c>
       <c r="F11" s="1">
-        <f>+N11*E11</f>
-        <v>100099.12080807718</v>
+        <f t="shared" si="0"/>
+        <v>101960.08682656474</v>
       </c>
       <c r="G11" s="13">
-        <v>33.016021690000002</v>
+        <v>33.15203674</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
-        <v>3304874.7437494067</v>
+        <f t="shared" si="3"/>
+        <v>3380184.5444878642</v>
       </c>
       <c r="I11">
         <v>1407824</v>
@@ -9178,7 +9179,7 @@
         <v>2593287</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35185827136512832</v>
       </c>
       <c r="L11">
@@ -9188,11 +9189,11 @@
         <v>0.42</v>
       </c>
       <c r="N11" s="1">
-        <f>+L11-I11</f>
+        <f t="shared" si="1"/>
         <v>257611</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.15468090919189281</v>
       </c>
       <c r="P11">
@@ -9250,32 +9251,32 @@
         <v>-14.29</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5">
-        <v>0.23226439063503795</v>
+        <v>0.25347901481449198</v>
       </c>
       <c r="F12" s="1">
-        <f>+N12*E12</f>
-        <v>4041.4003970496606</v>
+        <f t="shared" si="0"/>
+        <v>4410.5348577721606</v>
       </c>
       <c r="G12" s="13">
-        <v>31.859949690000001</v>
+        <v>32.186479900000002</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
-        <v>128758.81332714821</v>
+        <f t="shared" si="3"/>
+        <v>141959.59154793303</v>
       </c>
       <c r="I12">
         <v>189627</v>
@@ -9284,7 +9285,7 @@
         <v>300457</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38692754711437222</v>
       </c>
       <c r="L12">
@@ -9294,11 +9295,11 @@
         <v>0.42</v>
       </c>
       <c r="N12" s="1">
-        <f>+L12-I12</f>
+        <f t="shared" si="1"/>
         <v>17400</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.4047008361228248E-2</v>
       </c>
       <c r="P12">
@@ -9356,32 +9357,32 @@
         <v>-13.81</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="5">
-        <v>0.21367794535334592</v>
+        <v>0.22661094661770001</v>
       </c>
       <c r="F13" s="1">
-        <f>+N13*E13</f>
-        <v>16510.253803616979</v>
+        <f t="shared" si="0"/>
+        <v>17509.548012309828</v>
       </c>
       <c r="G13" s="13">
-        <v>34.035919739999997</v>
+        <v>34.441237039999997</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
-        <v>561941.67334693717</v>
+        <f t="shared" si="3"/>
+        <v>603050.49355522357</v>
       </c>
       <c r="I13">
         <v>420220</v>
@@ -9390,7 +9391,7 @@
         <v>880242</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3231313179470065</v>
       </c>
       <c r="L13">
@@ -9400,11 +9401,11 @@
         <v>0.38</v>
       </c>
       <c r="N13" s="1">
-        <f>+L13-I13</f>
+        <f t="shared" si="1"/>
         <v>77267</v>
       </c>
       <c r="O13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.15531461123607251</v>
       </c>
       <c r="P13">
@@ -9462,32 +9463,32 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="5">
-        <v>0.15385392287975036</v>
+        <v>0.163692466287752</v>
       </c>
       <c r="F14" s="1">
-        <f>+N14*E14</f>
-        <v>7528.5340082748244</v>
+        <f t="shared" si="0"/>
+        <v>8009.9634528585684</v>
       </c>
       <c r="G14" s="13">
-        <v>34.731982799999997</v>
+        <v>34.743103990000002</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
-        <v>261480.91368461624</v>
+        <f t="shared" si="3"/>
+        <v>278290.99319876474</v>
       </c>
       <c r="I14">
         <v>238203</v>
@@ -9496,7 +9497,7 @@
         <v>455671</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34329431568267438</v>
       </c>
       <c r="L14">
@@ -9506,11 +9507,11 @@
         <v>0.41</v>
       </c>
       <c r="N14" s="1">
-        <f>+L14-I14</f>
+        <f t="shared" si="1"/>
         <v>48933</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17041750250752258</v>
       </c>
       <c r="P14">
@@ -9568,32 +9569,32 @@
         <v>-11.76</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5">
-        <v>0.29696075157995333</v>
+        <v>0.31331309366958998</v>
       </c>
       <c r="F15" s="1">
-        <f>+N15*E15</f>
-        <v>77360.057551087317</v>
+        <f t="shared" si="0"/>
+        <v>81619.940779490207</v>
       </c>
       <c r="G15" s="13">
-        <v>33.968861510000004</v>
+        <v>34.393142339999997</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
-        <v>2627833.0813585152</v>
+        <f t="shared" si="3"/>
+        <v>2807166.241011377</v>
       </c>
       <c r="I15">
         <v>1740186</v>
@@ -9602,7 +9603,7 @@
         <v>3251474</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3486186959849028</v>
       </c>
       <c r="L15">
@@ -9612,11 +9613,11 @@
         <v>0.4</v>
       </c>
       <c r="N15" s="1">
-        <f>+L15-I15</f>
+        <f t="shared" si="1"/>
         <v>260506</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13020794804997471</v>
       </c>
       <c r="P15">
@@ -9674,32 +9675,32 @@
         <v>-12.46</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5">
-        <v>0.33797511886500975</v>
+        <v>0.35325971254046301</v>
       </c>
       <c r="F16" s="1">
-        <f>+N16*E16</f>
-        <v>60997.749452756958</v>
+        <f t="shared" si="0"/>
+        <v>63756.312919302763</v>
       </c>
       <c r="G16" s="13">
-        <v>32.701699660000003</v>
+        <v>32.919614019999997</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
-        <v>1994730.0825399875</v>
+        <f t="shared" si="3"/>
+        <v>2098833.2126417863</v>
       </c>
       <c r="I16">
         <v>918666</v>
@@ -9708,7 +9709,7 @@
         <v>1762025</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3426974612142914</v>
       </c>
       <c r="L16">
@@ -9718,11 +9719,11 @@
         <v>0.41</v>
       </c>
       <c r="N16" s="1">
-        <f>+L16-I16</f>
+        <f t="shared" si="1"/>
         <v>180480</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16420020634201463</v>
       </c>
       <c r="P16">
@@ -9780,32 +9781,32 @@
         <v>-11.91</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5">
-        <v>0.2563878964767019</v>
+        <v>0.27075649245198202</v>
       </c>
       <c r="F17" s="1">
-        <f>+N17*E17</f>
-        <v>24119.94774894221</v>
+        <f t="shared" si="0"/>
+        <v>25471.687783912661</v>
       </c>
       <c r="G17" s="13">
-        <v>31.419998240000002</v>
+        <v>31.445740610000001</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
-        <v>757848.71582065627</v>
+        <f t="shared" si="3"/>
+        <v>800976.08695182332</v>
       </c>
       <c r="I17">
         <v>355446</v>
@@ -9814,7 +9815,7 @@
         <v>803577</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3066772617972206</v>
       </c>
       <c r="L17">
@@ -9824,11 +9825,11 @@
         <v>0.39</v>
       </c>
       <c r="N17" s="1">
-        <f>+L17-I17</f>
+        <f t="shared" si="1"/>
         <v>94076</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.20928007972913451</v>
       </c>
       <c r="P17">
@@ -9886,32 +9887,32 @@
         <v>-12.74</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5">
-        <v>0.46713239173551641</v>
+        <v>0.48587546050816899</v>
       </c>
       <c r="F18" s="1">
-        <f>+N18*E18</f>
-        <v>51564.409061724975</v>
+        <f t="shared" si="0"/>
+        <v>53633.362708194232</v>
       </c>
       <c r="G18" s="13">
-        <v>32.125411460000002</v>
+        <v>32.225604619999999</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
-        <v>1656527.8577996674</v>
+        <f t="shared" si="3"/>
+        <v>1728367.5410753198</v>
       </c>
       <c r="I18">
         <v>763378</v>
@@ -9920,7 +9921,7 @@
         <v>1022308</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.42749845157547295</v>
       </c>
       <c r="L18">
@@ -9930,11 +9931,11 @@
         <v>0.49</v>
       </c>
       <c r="N18" s="1">
-        <f>+L18-I18</f>
+        <f t="shared" si="1"/>
         <v>110385</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12633288431760101</v>
       </c>
       <c r="P18">
@@ -9992,32 +9993,32 @@
         <v>-11.32</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5">
-        <v>0.50904435816375382</v>
+        <v>0.53536863905450205</v>
       </c>
       <c r="F19" s="1">
-        <f>+N19*E19</f>
-        <v>51675.638018993472</v>
+        <f t="shared" si="0"/>
+        <v>54347.947393617775</v>
       </c>
       <c r="G19" s="13">
-        <v>34.008281179999997</v>
+        <v>33.875930699999998</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>1757399.6279058279</v>
+        <f t="shared" si="3"/>
+        <v>1841087.2995934412</v>
       </c>
       <c r="I19">
         <v>846811</v>
@@ -10026,7 +10027,7 @@
         <v>937115</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.47468953308601364</v>
       </c>
       <c r="L19">
@@ -10036,11 +10037,11 @@
         <v>0.53</v>
       </c>
       <c r="N19" s="1">
-        <f>+L19-I19</f>
+        <f t="shared" si="1"/>
         <v>101515</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10704652197661986</v>
       </c>
       <c r="P19">
@@ -10098,32 +10099,32 @@
         <v>-11.72</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="5">
-        <v>0.29063163935791225</v>
+        <v>0.30350186539937002</v>
       </c>
       <c r="F20" s="1">
-        <f>+N20*E20</f>
-        <v>25840.349686951336</v>
+        <f t="shared" si="0"/>
+        <v>26984.654354523387</v>
       </c>
       <c r="G20" s="13">
-        <v>33.705891639999997</v>
+        <v>34.088286779999997</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="1"/>
-        <v>870972.02648808958</v>
+        <f t="shared" si="3"/>
+        <v>919860.6362961689</v>
       </c>
       <c r="I20">
         <v>1028008</v>
@@ -10132,7 +10133,7 @@
         <v>1730966</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37260517859175185</v>
       </c>
       <c r="L20">
@@ -10142,11 +10143,11 @@
         <v>0.4</v>
       </c>
       <c r="N20" s="1">
-        <f>+L20-I20</f>
+        <f t="shared" si="1"/>
         <v>88911</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.9603802961539738E-2</v>
       </c>
       <c r="P20">
@@ -10204,32 +10205,32 @@
         <v>-12.57</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="5">
-        <v>0.28296995906425243</v>
+        <v>0.29927309591610701</v>
       </c>
       <c r="F21" s="1">
-        <f>+N21*E21</f>
-        <v>22497.526595403389</v>
+        <f t="shared" si="0"/>
+        <v>23793.707490810088</v>
       </c>
       <c r="G21" s="13">
-        <v>34.495308659999999</v>
+        <v>34.903481499999998</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="1"/>
-        <v>776059.12399499887</v>
+        <f t="shared" si="3"/>
+        <v>830483.22922190127</v>
       </c>
       <c r="I21">
         <v>777692</v>
@@ -10238,7 +10239,7 @@
         <v>1577946</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33014070922612049</v>
       </c>
       <c r="L21">
@@ -10248,11 +10249,11 @@
         <v>0.36</v>
       </c>
       <c r="N21" s="1">
-        <f>+L21-I21</f>
+        <f t="shared" si="1"/>
         <v>79505</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.2749974626602755E-2</v>
       </c>
       <c r="P21">
@@ -10310,32 +10311,32 @@
         <v>-13.59</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="5">
-        <v>0.37373224078426392</v>
+        <v>0.39315674691397201</v>
       </c>
       <c r="F22" s="1">
-        <f>+N22*E22</f>
-        <v>15128.307374706219</v>
+        <f t="shared" si="0"/>
+        <v>15914.591958330673</v>
       </c>
       <c r="G22" s="13">
-        <v>31.143031879999999</v>
+        <v>31.157143489999999</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>471141.35886091489</v>
+        <f t="shared" si="3"/>
+        <v>495853.22523050889</v>
       </c>
       <c r="I22">
         <v>195666</v>
@@ -10344,7 +10345,7 @@
         <v>397962</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.32961046311831654</v>
       </c>
       <c r="L22">
@@ -10354,11 +10355,11 @@
         <v>0.4</v>
       </c>
       <c r="N22" s="1">
-        <f>+L22-I22</f>
+        <f t="shared" si="1"/>
         <v>40479</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17141586736962461</v>
       </c>
       <c r="P22">
@@ -10416,32 +10417,32 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="5">
-        <v>0.41776655233752324</v>
+        <v>0.45385278422199998</v>
       </c>
       <c r="F23" s="1">
-        <f>+N23*E23</f>
-        <v>98747.897742572706</v>
+        <f t="shared" si="0"/>
+        <v>107277.63645933836</v>
       </c>
       <c r="G23" s="13">
-        <v>34.127417870000002</v>
+        <v>34.570026230000003</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
-        <v>3370010.7700448087</v>
+        <f t="shared" si="3"/>
+        <v>3708590.7062917319</v>
       </c>
       <c r="I23">
         <v>1493430</v>
@@ -10450,7 +10451,7 @@
         <v>2558370</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36858433288908632</v>
       </c>
       <c r="L23">
@@ -10460,11 +10461,11 @@
         <v>0.43</v>
       </c>
       <c r="N23" s="1">
-        <f>+L23-I23</f>
+        <f t="shared" si="1"/>
         <v>236371</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13664635411819048</v>
       </c>
       <c r="P23">
@@ -10522,32 +10523,32 @@
         <v>-11.12</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="5">
-        <v>0.27209501604192821</v>
+        <v>0.28654396086167999</v>
       </c>
       <c r="F24" s="1">
-        <f>+N24*E24</f>
-        <v>29510.337059843365</v>
+        <f t="shared" si="0"/>
+        <v>31077.411819214365</v>
       </c>
       <c r="G24" s="13">
-        <v>32.999180930000001</v>
+        <v>33.182092169999997</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
-        <v>973816.95194305549</v>
+        <f t="shared" si="3"/>
+        <v>1031213.5433902184</v>
       </c>
       <c r="I24">
         <v>694440</v>
@@ -10556,7 +10557,7 @@
         <v>1586565</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.30444475132671783</v>
       </c>
       <c r="L24">
@@ -10566,11 +10567,11 @@
         <v>0.35</v>
       </c>
       <c r="N24" s="1">
-        <f>+L24-I24</f>
+        <f t="shared" si="1"/>
         <v>108456</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13508100675554494</v>
       </c>
       <c r="P24">
@@ -10628,32 +10629,32 @@
         <v>-13.49</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="5">
-        <v>0.35418504940036039</v>
+        <v>0.37575446881666902</v>
       </c>
       <c r="F25" s="1">
-        <f>+N25*E25</f>
-        <v>66007.696731498159</v>
+        <f t="shared" si="0"/>
+        <v>70027.481581018525</v>
       </c>
       <c r="G25" s="13">
-        <v>32.087810779999998</v>
+        <v>32.364814770000002</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
-        <v>2118042.4827439371</v>
+        <f t="shared" si="3"/>
+        <v>2266426.4701792514</v>
       </c>
       <c r="I25">
         <v>779215</v>
@@ -10662,7 +10663,7 @@
         <v>1689496</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.31563637866076671</v>
       </c>
       <c r="L25">
@@ -10672,11 +10673,11 @@
         <v>0.39</v>
       </c>
       <c r="N25" s="1">
-        <f>+L25-I25</f>
+        <f t="shared" si="1"/>
         <v>186365</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1930083473145674</v>
       </c>
       <c r="P25">
@@ -10734,32 +10735,32 @@
         <v>-10.81</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E26" s="5">
-        <v>0.38471768977607307</v>
+        <v>0.387259712921315</v>
       </c>
       <c r="F26" s="1">
-        <f>+N26*E26</f>
-        <v>33549.306136922452</v>
+        <f t="shared" si="0"/>
+        <v>33770.983265303272</v>
       </c>
       <c r="G26" s="13">
-        <v>33.903143319999998</v>
+        <v>34.00269539</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="1"/>
-        <v>1137426.9342466374</v>
+        <f t="shared" si="3"/>
+        <v>1148304.4569908946</v>
       </c>
       <c r="I26">
         <v>489501</v>
@@ -10768,7 +10769,7 @@
         <v>640108</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.43333666782045821</v>
       </c>
       <c r="L26">
@@ -10778,11 +10779,11 @@
         <v>0.51</v>
       </c>
       <c r="N26" s="1">
-        <f>+L26-I26</f>
+        <f t="shared" si="1"/>
         <v>87205</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.15121222945486956</v>
       </c>
       <c r="P26">
@@ -10840,32 +10841,32 @@
         <v>-10.39</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" s="5">
-        <v>0.26792805802619057</v>
+        <v>0.28061855218965698</v>
       </c>
       <c r="F27" s="1">
-        <f>+N27*E27</f>
-        <v>8523.5953099872004</v>
+        <f t="shared" si="0"/>
+        <v>8927.3180008095569</v>
       </c>
       <c r="G27" s="13">
-        <v>33.274259790000002</v>
+        <v>33.621247949999997</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="1"/>
-        <v>283616.32468933973</v>
+        <f t="shared" si="3"/>
+        <v>300147.57203371637</v>
       </c>
       <c r="I27">
         <v>151001</v>
@@ -10874,7 +10875,7 @@
         <v>297944</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.33634632304625289</v>
       </c>
       <c r="L27">
@@ -10884,11 +10885,11 @@
         <v>0.41</v>
       </c>
       <c r="N27" s="1">
-        <f>+L27-I27</f>
+        <f t="shared" si="1"/>
         <v>31813</v>
       </c>
       <c r="O27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17401840121653703</v>
       </c>
       <c r="P27">
@@ -10946,32 +10947,32 @@
         <v>-9.19</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E28" s="5">
-        <v>0.46559862582699313</v>
+        <v>0.49083342885706199</v>
       </c>
       <c r="F28" s="1">
-        <f>+N28*E28</f>
-        <v>130207.91490289941</v>
+        <f t="shared" si="0"/>
+        <v>137265.00421387938</v>
       </c>
       <c r="G28" s="13">
-        <v>31.567388480000002</v>
+        <v>31.58749598</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="1"/>
-        <v>4110323.8329106076</v>
+        <f t="shared" si="3"/>
+        <v>4335857.7688005976</v>
       </c>
       <c r="I28">
         <v>1473834</v>
@@ -10980,7 +10981,7 @@
         <v>2705808</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35262206667460994</v>
       </c>
       <c r="L28">
@@ -10990,11 +10991,11 @@
         <v>0.42</v>
       </c>
       <c r="N28" s="1">
-        <f>+L28-I28</f>
+        <f t="shared" si="1"/>
         <v>279657</v>
       </c>
       <c r="O28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.15948584851590342</v>
       </c>
       <c r="P28">
@@ -11052,32 +11053,32 @@
         <v>-9.99</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" s="5">
-        <v>0.13254830917874397</v>
+        <v>0.14415898111550199</v>
       </c>
       <c r="F29" s="1">
-        <f>+N29*E29</f>
-        <v>4134.0492149758456</v>
+        <f t="shared" si="0"/>
+        <v>4496.1744620113914</v>
       </c>
       <c r="G29" s="13">
-        <v>34.490254780000001</v>
+        <v>34.91900364</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="1"/>
-        <v>142584.41069757592</v>
+        <f t="shared" si="3"/>
+        <v>157001.93240505081</v>
       </c>
       <c r="I29">
         <v>78107</v>
@@ -11086,7 +11087,7 @@
         <v>244397</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24218924416441345</v>
       </c>
       <c r="L29">
@@ -11096,11 +11097,11 @@
         <v>0.34</v>
       </c>
       <c r="N29" s="1">
-        <f>+L29-I29</f>
+        <f t="shared" si="1"/>
         <v>31189</v>
       </c>
       <c r="O29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.28536268481920657</v>
       </c>
       <c r="P29">
@@ -11158,32 +11159,32 @@
         <v>-11.27</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30" s="5">
-        <v>0.30317676367422802</v>
+        <v>0.31767992124724997</v>
       </c>
       <c r="F30" s="1">
-        <f>+N30*E30</f>
-        <v>16418.840813541494</v>
+        <f t="shared" si="0"/>
+        <v>17204.27381506607</v>
       </c>
       <c r="G30" s="13">
-        <v>30.684206410000002</v>
+        <v>30.753529149999999</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
-        <v>503799.10053563956</v>
+        <f t="shared" si="3"/>
+        <v>529092.13627621601</v>
       </c>
       <c r="I30">
         <v>227231</v>
@@ -11192,7 +11193,7 @@
         <v>558750</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.28910495291870925</v>
       </c>
       <c r="L30">
@@ -11202,11 +11203,11 @@
         <v>0.36</v>
       </c>
       <c r="N30" s="1">
-        <f>+L30-I30</f>
+        <f t="shared" si="1"/>
         <v>54156</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.19246091681563113</v>
       </c>
       <c r="P30">
@@ -11264,32 +11265,32 @@
         <v>-9.41</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="5">
-        <v>0.20620305734735353</v>
+        <v>0.210173485317074</v>
       </c>
       <c r="F31" s="1">
-        <f>+N31*E31</f>
-        <v>5392.6223557479898</v>
+        <f t="shared" si="0"/>
+        <v>5496.4569880121189</v>
       </c>
       <c r="G31" s="13">
-        <v>31.75315651</v>
+        <v>32.226086819999999</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="1"/>
-        <v>171232.78166139082</v>
+        <f t="shared" si="3"/>
+        <v>177129.30009807425</v>
       </c>
       <c r="I31">
         <v>143603</v>
@@ -11298,7 +11299,7 @@
         <v>404430</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26203349068395515</v>
       </c>
       <c r="L31">
@@ -11308,11 +11309,11 @@
         <v>0.31</v>
       </c>
       <c r="N31" s="1">
-        <f>+L31-I31</f>
+        <f t="shared" si="1"/>
         <v>26152</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1540573178993255</v>
       </c>
       <c r="P31">
@@ -11370,32 +11371,32 @@
         <v>-11.23</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="5">
-        <v>0.21821895766206756</v>
+        <v>0.226280848004276</v>
       </c>
       <c r="F32" s="1">
-        <f>+N32*E32</f>
-        <v>33555.529119696126</v>
+        <f t="shared" si="0"/>
+        <v>34795.205997617522</v>
       </c>
       <c r="G32" s="13">
-        <v>34.815277600000002</v>
+        <v>35.115383340000001</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
-        <v>1168245.0613171044</v>
+        <f t="shared" si="3"/>
+        <v>1221846.9970006065</v>
       </c>
       <c r="I32">
         <v>1114667</v>
@@ -11404,7 +11405,7 @@
         <v>2383284</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.31866284004550094</v>
       </c>
       <c r="L32">
@@ -11414,11 +11415,11 @@
         <v>0.36</v>
       </c>
       <c r="N32" s="1">
-        <f>+L32-I32</f>
+        <f t="shared" si="1"/>
         <v>153770</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12122793642884905</v>
       </c>
       <c r="P32">
@@ -11476,32 +11477,32 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33" s="5">
-        <v>0.37991714681114719</v>
+        <v>0.384374123755167</v>
       </c>
       <c r="F33" s="1">
-        <f>+N33*E33</f>
-        <v>17775.943382146765</v>
+        <f t="shared" si="0"/>
+        <v>17984.480876380509</v>
       </c>
       <c r="G33" s="13">
-        <v>39.697631569999999</v>
+        <v>39.702975199999997</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
-        <v>705662.85119364201</v>
+        <f t="shared" si="3"/>
+        <v>714037.39821980952</v>
       </c>
       <c r="I33">
         <v>395439</v>
@@ -11510,7 +11511,7 @@
         <v>438564</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.47414577645404155</v>
       </c>
       <c r="L33">
@@ -11520,11 +11521,11 @@
         <v>0.53</v>
       </c>
       <c r="N33" s="1">
-        <f>+L33-I33</f>
+        <f t="shared" si="1"/>
         <v>46789</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10580288900748031</v>
       </c>
       <c r="P33">
@@ -11582,32 +11583,32 @@
         <v>-10.44</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34" s="5">
-        <v>0.42751854312488119</v>
+        <v>0.45668691149927798</v>
       </c>
       <c r="F34" s="1">
-        <f>+N34*E34</f>
-        <v>34108.284407589272</v>
+        <f t="shared" ref="F34:F52" si="5">+N34*E34</f>
+        <v>36435.395173235396</v>
       </c>
       <c r="G34" s="13">
-        <v>33.554117259999998</v>
+        <v>33.422314419999999</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
-        <v>1144473.3745496799</v>
+        <f t="shared" si="3"/>
+        <v>1217755.2334968238</v>
       </c>
       <c r="I34">
         <v>451547</v>
@@ -11616,7 +11617,7 @@
         <v>739830</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.37901268867873056</v>
       </c>
       <c r="L34">
@@ -11626,11 +11627,11 @@
         <v>0.45</v>
       </c>
       <c r="N34" s="1">
-        <f>+L34-I34</f>
+        <f t="shared" ref="N34:N52" si="6">+L34-I34</f>
         <v>79782</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" ref="O34:O65" si="3">+N34/L34</f>
+        <f t="shared" ref="O34:O52" si="7">+N34/L34</f>
         <v>0.15015555333889172</v>
       </c>
       <c r="P34">
@@ -11688,32 +11689,32 @@
         <v>-10.33</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E35" s="5">
-        <v>0.42345282068429313</v>
+        <v>0.45300164517804398</v>
       </c>
       <c r="F35" s="1">
-        <f>+N35*E35</f>
-        <v>127812.88213124362</v>
+        <f t="shared" si="5"/>
+        <v>136731.75157231491</v>
       </c>
       <c r="G35" s="13">
-        <v>33.144548370000003</v>
+        <v>33.393949069999998</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
-        <v>4236300.2541081132</v>
+        <f t="shared" si="3"/>
+        <v>4566013.1482577762</v>
       </c>
       <c r="I35">
         <v>3146424</v>
@@ -11722,7 +11723,7 @@
         <v>4506020</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.41116589680368781</v>
       </c>
       <c r="L35">
@@ -11732,11 +11733,11 @@
         <v>0.45</v>
       </c>
       <c r="N35" s="1">
-        <f>+L35-I35</f>
+        <f t="shared" si="6"/>
         <v>301835</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.7532578034306585E-2</v>
       </c>
       <c r="P35">
@@ -11794,32 +11795,32 @@
         <v>-9.01</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36" s="5">
-        <v>0.50808206155414593</v>
+        <v>0.54349270350046397</v>
       </c>
       <c r="F36" s="1">
-        <f>+N36*E36</f>
-        <v>155425.85920384413</v>
+        <f t="shared" si="5"/>
+        <v>166258.22244971644</v>
       </c>
       <c r="G36" s="13">
-        <v>31.677992769999999</v>
+        <v>31.83051081</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="1"/>
-        <v>4923579.2441304121</v>
+        <f t="shared" si="3"/>
+        <v>5292084.1469370835</v>
       </c>
       <c r="I36">
         <v>1699027</v>
@@ -11828,7 +11829,7 @@
         <v>3133912</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35155150934038276</v>
       </c>
       <c r="L36">
@@ -11838,11 +11839,11 @@
         <v>0.41</v>
       </c>
       <c r="N36" s="1">
-        <f>+L36-I36</f>
+        <f t="shared" si="6"/>
         <v>305907</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.15257709231326319</v>
       </c>
       <c r="P36">
@@ -11900,32 +11901,32 @@
         <v>-9.8800000000000008</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E37" s="5">
-        <v>0.4167939246926512</v>
+        <v>0.449122057445283</v>
       </c>
       <c r="F37" s="1">
-        <f>+N37*E37</f>
-        <v>51710.371854843157</v>
+        <f t="shared" si="5"/>
+        <v>55721.226301063929</v>
       </c>
       <c r="G37" s="13">
-        <v>55.285361620000003</v>
+        <v>55.474808660000001</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
-        <v>2858826.6074996744</v>
+        <f t="shared" si="3"/>
+        <v>3091124.367352081</v>
       </c>
       <c r="I37">
         <v>601493</v>
@@ -11934,7 +11935,7 @@
         <v>946467</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38857141011395641</v>
       </c>
       <c r="L37">
@@ -11944,11 +11945,11 @@
         <v>0.47</v>
       </c>
       <c r="N37" s="1">
-        <f>+L37-I37</f>
+        <f t="shared" si="6"/>
         <v>124067</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17099481779590936</v>
       </c>
       <c r="P37">
@@ -12006,32 +12007,32 @@
         <v>-10.5</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E38" s="5">
-        <v>0.25488972369521246</v>
+        <v>0.27744157362334099</v>
       </c>
       <c r="F38" s="1">
-        <f>+N38*E38</f>
-        <v>19692.015383521029</v>
+        <f t="shared" si="5"/>
+        <v>21434.303653418454</v>
       </c>
       <c r="G38" s="13">
-        <v>32.176131329999997</v>
+        <v>32.772676400000002</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
-        <v>633612.87313255295</v>
+        <f t="shared" si="3"/>
+        <v>702459.49749282072</v>
       </c>
       <c r="I38">
         <v>667826</v>
@@ -12040,7 +12041,7 @@
         <v>1034755</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.39224330589851525</v>
       </c>
       <c r="L38">
@@ -12050,11 +12051,11 @@
         <v>0.44</v>
       </c>
       <c r="N38" s="1">
-        <f>+L38-I38</f>
+        <f t="shared" si="6"/>
         <v>77257</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.10368911919880067</v>
       </c>
       <c r="P38">
@@ -12112,32 +12113,32 @@
         <v>-10.11</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="5">
-        <v>0.31294452952186491</v>
+        <v>0.33372327151040698</v>
       </c>
       <c r="F39" s="1">
-        <f>+N39*E39</f>
-        <v>94066.431406329764</v>
+        <f t="shared" si="5"/>
+        <v>100312.20956695569</v>
       </c>
       <c r="G39" s="13">
-        <v>33.763203109999999</v>
+        <v>34.178204620000002</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" si="1"/>
-        <v>3175984.0294047948</v>
+        <f t="shared" si="3"/>
+        <v>3428491.2244637334</v>
       </c>
       <c r="I39">
         <v>1815135</v>
@@ -12146,7 +12147,7 @@
         <v>3413813</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34713196612396985</v>
       </c>
       <c r="L39">
@@ -12156,11 +12157,11 @@
         <v>0.4</v>
       </c>
       <c r="N39" s="1">
-        <f>+L39-I39</f>
+        <f t="shared" si="6"/>
         <v>300585</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.14207220237082413</v>
       </c>
       <c r="P39">
@@ -12218,32 +12219,32 @@
         <v>-7.66</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="5">
-        <v>0.37410348293263035</v>
+        <v>0.40697533690098397</v>
       </c>
       <c r="F40" s="1">
-        <f>+N40*E40</f>
-        <v>6381.0831083818757</v>
+        <f t="shared" si="5"/>
+        <v>6941.7783215200834</v>
       </c>
       <c r="G40" s="13">
-        <v>32.904151599999999</v>
+        <v>32.82142666</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" si="1"/>
-        <v>209964.12597039648</v>
+        <f t="shared" si="3"/>
+        <v>227839.06806974931</v>
       </c>
       <c r="I40">
         <v>172984</v>
@@ -12252,7 +12253,7 @@
         <v>267200</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.39298111698744159</v>
       </c>
       <c r="L40">
@@ -12262,11 +12263,11 @@
         <v>0.43</v>
       </c>
       <c r="N40" s="1">
-        <f>+L40-I40</f>
+        <f t="shared" si="6"/>
         <v>17057</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.9754316173878274E-2</v>
       </c>
       <c r="P40">
@@ -12324,32 +12325,32 @@
         <v>-8.32</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E41" s="5">
-        <v>0.41158764215374216</v>
+        <v>0.44147290868814898</v>
       </c>
       <c r="F41" s="1">
-        <f>+N41*E41</f>
-        <v>61450.446561195859</v>
+        <f t="shared" si="5"/>
+        <v>65912.346740049325</v>
       </c>
       <c r="G41" s="13">
-        <v>32.022368110000002</v>
+        <v>32.069442129999999</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
-        <v>1967788.8203064976</v>
+        <f t="shared" si="3"/>
+        <v>2113772.189432506</v>
       </c>
       <c r="I41">
         <v>741372</v>
@@ -12358,7 +12359,7 @@
         <v>1308481</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36167081249240801</v>
       </c>
       <c r="L41">
@@ -12368,11 +12369,11 @@
         <v>0.43</v>
       </c>
       <c r="N41" s="1">
-        <f>+L41-I41</f>
+        <f t="shared" si="6"/>
         <v>149301</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.16762717630376131</v>
       </c>
       <c r="P41">
@@ -12430,32 +12431,32 @@
         <v>-7.57</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E42" s="5">
-        <v>0.17141280716779761</v>
+        <v>0.18172310428881999</v>
       </c>
       <c r="F42" s="1">
-        <f>+N42*E42</f>
-        <v>4679.2268100665387</v>
+        <f t="shared" si="5"/>
+        <v>4960.6773008762084</v>
       </c>
       <c r="G42" s="13">
-        <v>41.817585610000002</v>
+        <v>41.678702309999998</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" si="1"/>
-        <v>195673.9677185647</v>
+        <f t="shared" si="3"/>
+        <v>206754.59247919379</v>
       </c>
       <c r="I42">
         <v>94134</v>
@@ -12464,7 +12465,7 @@
         <v>262752</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.26376489971587563</v>
       </c>
       <c r="L42">
@@ -12474,11 +12475,11 @@
         <v>0.34</v>
       </c>
       <c r="N42" s="1">
-        <f>+L42-I42</f>
+        <f t="shared" si="6"/>
         <v>27298</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.2248007115093221</v>
       </c>
       <c r="P42">
@@ -12536,32 +12537,32 @@
         <v>-8.7899999999999991</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E43" s="5">
-        <v>0.32874719594183882</v>
+        <v>0.345189343663036</v>
       </c>
       <c r="F43" s="1">
-        <f>+N43*E43</f>
-        <v>68455.686105360975</v>
+        <f t="shared" si="5"/>
+        <v>71879.467409641307</v>
       </c>
       <c r="G43" s="13">
-        <v>32.068839650000001</v>
+        <v>32.230226430000002</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
-        <v>2195294.4208435542</v>
+        <f t="shared" si="3"/>
+        <v>2316691.5102805449</v>
       </c>
       <c r="I43">
         <v>992706</v>
@@ -12570,7 +12571,7 @@
         <v>1777696</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35832561483856856</v>
       </c>
       <c r="L43">
@@ -12580,11 +12581,11 @@
         <v>0.43</v>
       </c>
       <c r="N43" s="1">
-        <f>+L43-I43</f>
+        <f t="shared" si="6"/>
         <v>208232</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17339113259801922</v>
       </c>
       <c r="P43">
@@ -12642,32 +12643,32 @@
         <v>-8.41</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E44" s="5">
-        <v>0.33495033912592631</v>
+        <v>0.3591437026273</v>
       </c>
       <c r="F44" s="1">
-        <f>+N44*E44</f>
-        <v>248646.36484606189</v>
+        <f t="shared" si="5"/>
+        <v>266606.01792094461</v>
       </c>
       <c r="G44" s="13">
-        <v>32.347458199999998</v>
+        <v>32.385638470000004</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" si="1"/>
-        <v>8043077.8934399355</v>
+        <f t="shared" si="3"/>
+        <v>8634206.1103140544</v>
       </c>
       <c r="I44">
         <v>3794030</v>
@@ -12676,7 +12677,7 @@
         <v>7002173</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35142262515812273</v>
       </c>
       <c r="L44">
@@ -12686,11 +12687,11 @@
         <v>0.42</v>
       </c>
       <c r="N44" s="1">
-        <f>+L44-I44</f>
+        <f t="shared" si="6"/>
         <v>742338</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.16364148587592542</v>
       </c>
       <c r="P44">
@@ -12748,32 +12749,32 @@
         <v>-9.18</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E45" s="5">
-        <v>0.16740330727184669</v>
+        <v>0.18258077907700801</v>
       </c>
       <c r="F45" s="1">
-        <f>+N45*E45</f>
-        <v>13058.797193662216</v>
+        <f t="shared" si="5"/>
+        <v>14242.761414239241</v>
       </c>
       <c r="G45" s="13">
-        <v>35.304178210000003</v>
+        <v>35.78005958</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" si="1"/>
-        <v>461030.10333329882</v>
+        <f t="shared" si="3"/>
+        <v>509606.85198520508</v>
       </c>
       <c r="I45">
         <v>283317</v>
@@ -12782,7 +12783,7 @@
         <v>818182</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25721040146200769</v>
       </c>
       <c r="L45">
@@ -12792,11 +12793,11 @@
         <v>0.33</v>
       </c>
       <c r="N45" s="1">
-        <f>+L45-I45</f>
+        <f t="shared" si="6"/>
         <v>78008</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21589427800456654</v>
       </c>
       <c r="P45">
@@ -12854,32 +12855,32 @@
         <v>-5.42</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E46" s="5">
-        <v>0.34339512007281381</v>
+        <v>0.37162535881817499</v>
       </c>
       <c r="F46" s="1">
-        <f>+N46*E46</f>
-        <v>57936.594473324927</v>
+        <f t="shared" si="5"/>
+        <v>62699.51566372603</v>
       </c>
       <c r="G46" s="13">
-        <v>33.832989359999999</v>
+        <v>34.042880650000001</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" si="1"/>
-        <v>1960168.1843706369</v>
+        <f t="shared" si="3"/>
+        <v>2134472.128553031</v>
       </c>
       <c r="I46">
         <v>973923</v>
@@ -12888,7 +12889,7 @@
         <v>2357533</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.29234154675913476</v>
       </c>
       <c r="L46">
@@ -12898,11 +12899,11 @@
         <v>0.34</v>
       </c>
       <c r="N46" s="1">
-        <f>+L46-I46</f>
+        <f t="shared" si="6"/>
         <v>168717</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.14765542953161101</v>
       </c>
       <c r="P46">
@@ -12960,32 +12961,32 @@
         <v>-7.93</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E47" s="5">
-        <v>0.1877463397879009</v>
+        <v>0.20693830234854599</v>
       </c>
       <c r="F47" s="1">
-        <f>+N47*E47</f>
-        <v>2358.469520415611</v>
+        <f t="shared" si="5"/>
+        <v>2599.5589541024347</v>
       </c>
       <c r="G47" s="13">
-        <v>31.791231509999999</v>
+        <v>33.223400120000001</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" si="1"/>
-        <v>74978.650532811356</v>
+        <f t="shared" si="3"/>
+        <v>86366.1872676739</v>
       </c>
       <c r="I47">
         <v>103893</v>
@@ -12994,7 +12995,7 @@
         <v>166262</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38456811830245602</v>
       </c>
       <c r="L47">
@@ -13004,11 +13005,11 @@
         <v>0.43</v>
       </c>
       <c r="N47" s="1">
-        <f>+L47-I47</f>
+        <f t="shared" si="6"/>
         <v>12562</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.10786999270104332</v>
       </c>
       <c r="P47">
@@ -13066,32 +13067,32 @@
         <v>-6.59</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E48" s="5">
-        <v>0.26063683668696075</v>
+        <v>0.27906650178644599</v>
       </c>
       <c r="F48" s="1">
-        <f>+N48*E48</f>
-        <v>30681.647141115645</v>
+        <f t="shared" si="5"/>
+        <v>32851.150457296848</v>
       </c>
       <c r="G48" s="13">
-        <v>33.083643129999999</v>
+        <v>33.562053900000002</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" si="1"/>
-        <v>1015060.6646572547</v>
+        <f t="shared" si="3"/>
+        <v>1102552.0823248066</v>
       </c>
       <c r="I48">
         <v>1021695</v>
@@ -13100,7 +13101,7 @@
         <v>2000565</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.3380566198804868</v>
       </c>
       <c r="L48">
@@ -13110,11 +13111,11 @@
         <v>0.38</v>
       </c>
       <c r="N48" s="1">
-        <f>+L48-I48</f>
+        <f t="shared" si="6"/>
         <v>117718</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1033146014658425</v>
       </c>
       <c r="P48">
@@ -13172,32 +13173,32 @@
         <v>-6.23</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E49" s="5">
-        <v>0.42885648658313613</v>
+        <v>0.460510577333756</v>
       </c>
       <c r="F49" s="1">
-        <f>+N49*E49</f>
-        <v>58060.735436057883</v>
+        <f t="shared" si="5"/>
+        <v>62346.224512330555</v>
       </c>
       <c r="G49" s="13">
-        <v>32.005304860000003</v>
+        <v>32.234228649999999</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" si="1"/>
-        <v>1858251.5380268376</v>
+        <f t="shared" si="3"/>
+        <v>2009682.4563946978</v>
       </c>
       <c r="I49">
         <v>756664</v>
@@ -13206,7 +13207,7 @@
         <v>1693307</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.30884610470899454</v>
       </c>
       <c r="L49">
@@ -13216,11 +13217,11 @@
         <v>0.36</v>
       </c>
       <c r="N49" s="1">
-        <f>+L49-I49</f>
+        <f t="shared" si="6"/>
         <v>135385</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.15176856876696235</v>
       </c>
       <c r="P49">
@@ -13278,32 +13279,32 @@
         <v>-6.78</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E50" s="5">
-        <v>0.30814727684317988</v>
+        <v>0.32419048781570398</v>
       </c>
       <c r="F50" s="1">
-        <f>+N50*E50</f>
-        <v>13958.455346442362</v>
+        <f t="shared" si="5"/>
+        <v>14685.180717075758</v>
       </c>
       <c r="G50" s="13">
-        <v>34.131410379999998</v>
+        <v>34.52164518</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" si="1"/>
-        <v>476421.76770032931</v>
+        <f t="shared" si="3"/>
+        <v>506956.59811906732</v>
       </c>
       <c r="I50">
         <v>315166</v>
@@ -13312,7 +13313,7 @@
         <v>407022</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.43640437116097192</v>
       </c>
       <c r="L50">
@@ -13322,11 +13323,11 @@
         <v>0.5</v>
       </c>
       <c r="N50" s="1">
-        <f>+L50-I50</f>
+        <f t="shared" si="6"/>
         <v>45298</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.12566580851347153</v>
       </c>
       <c r="P50">
@@ -13384,32 +13385,32 @@
         <v>-7.28</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E51" s="5">
-        <v>0.22768041785330229</v>
+        <v>0.244437091570849</v>
       </c>
       <c r="F51" s="1">
-        <f>+N51*E51</f>
-        <v>4059.9972111600864</v>
+        <f t="shared" si="5"/>
+        <v>4358.8022168913794</v>
       </c>
       <c r="G51" s="13">
-        <v>31.479686439999998</v>
+        <v>31.65394221</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" si="1"/>
-        <v>127807.43915459399</v>
+        <f t="shared" si="3"/>
+        <v>137973.27347829961</v>
       </c>
       <c r="I51">
         <v>66791</v>
@@ -13418,7 +13419,7 @@
         <v>175968</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27513295078658256</v>
       </c>
       <c r="L51">
@@ -13428,11 +13429,11 @@
         <v>0.35</v>
       </c>
       <c r="N51" s="1">
-        <f>+L51-I51</f>
+        <f t="shared" si="6"/>
         <v>17832</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.21072285312503694</v>
       </c>
       <c r="P51">
@@ -13490,32 +13491,32 @@
         <v>-5.78</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E52" s="5">
-        <v>0.65034172222864561</v>
+        <v>0.68068241672126495</v>
       </c>
       <c r="F52" s="1">
-        <f>+N52*E52</f>
-        <v>59003.553432638328</v>
+        <f t="shared" si="5"/>
+        <v>61756.273621870205</v>
       </c>
       <c r="G52" s="13">
-        <v>32.688627820000001</v>
+        <v>32.684821069999998</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" si="1"/>
-        <v>1928745.1982169978</v>
+        <f t="shared" si="3"/>
+        <v>2018492.7532807884</v>
       </c>
       <c r="I52">
         <v>843365</v>
@@ -13524,7 +13525,7 @@
         <v>322623</v>
       </c>
       <c r="K52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.72330504259048978</v>
       </c>
       <c r="L52">
@@ -13534,11 +13535,11 @@
         <v>0.8</v>
       </c>
       <c r="N52" s="1">
-        <f>+L52-I52</f>
+        <f t="shared" si="6"/>
         <v>90727</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7128548365685602E-2</v>
       </c>
       <c r="P52">
@@ -13593,15 +13594,15 @@
         <v>-6.54</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="F53" s="11">
         <f>SUM(F2:F52)</f>
-        <v>2659376.4947298267</v>
+        <v>2831804.4564852938</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="11">
         <f>SUM(H2:H52)</f>
-        <v>88981643.205026418</v>
+        <v>95232483.615635663</v>
       </c>
       <c r="L53" s="3">
         <f>SUM(L2:L52)</f>
@@ -13612,45 +13613,45 @@
         <v>7351595</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5</v>
       </c>
@@ -13676,59 +13677,59 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -13739,26 +13740,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="154dde8e-0302-4204-8831-7b6b0b57b4c4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fa1d493-2533-4267-bd8d-f20e718e3e9a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051ECE92E5E5FC8429A54C4E0067B4A6F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9847290575c7bc5d5edcc6ba3366ed2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fa1d493-2533-4267-bd8d-f20e718e3e9a" xmlns:ns3="154dde8e-0302-4204-8831-7b6b0b57b4c4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9985a43a59dcb72196bd4a058d8673f9" ns2:_="" ns3:_="">
     <xsd:import namespace="1fa1d493-2533-4267-bd8d-f20e718e3e9a"/>
@@ -14001,14 +13982,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="154dde8e-0302-4204-8831-7b6b0b57b4c4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1fa1d493-2533-4267-bd8d-f20e718e3e9a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE3FF542-81E0-4B2D-B676-B86C6E06E124}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2073904-950E-4CD3-A96A-D0900CD86CC0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1fa1d493-2533-4267-bd8d-f20e718e3e9a"/>
+    <ds:schemaRef ds:uri="154dde8e-0302-4204-8831-7b6b0b57b4c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F8B9A57-A6AA-4D23-935B-A90E1FFF35BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F8B9A57-A6AA-4D23-935B-A90E1FFF35BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2073904-950E-4CD3-A96A-D0900CD86CC0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE3FF542-81E0-4B2D-B676-B86C6E06E124}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154dde8e-0302-4204-8831-7b6b0b57b4c4"/>
+    <ds:schemaRef ds:uri="1fa1d493-2533-4267-bd8d-f20e718e3e9a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>